--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bgdpbes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/elec/BGDPbES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B831B-97A2-1F47-B0E7-C814EF427FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA39D40F-3A74-9645-BB5A-788D69383C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23000" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Notes:</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
+  <si>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -511,8 +516,11 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
       <c r="C1" s="4">
-        <v>44307</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -568,7 +576,9 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1286,147 +1296,147 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1434,147 +1444,147 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1582,147 +1592,147 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -1730,147 +1740,147 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -1878,147 +1888,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -2470,147 +2480,147 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2844,112 +2854,147 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>B17</f>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f t="shared" ref="D17:AK17" si="3">C17</f>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675A6B7-1944-4BEB-ADA5-F2D2872020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CC60D9-AB82-4C6D-8771-9CBFFE207C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="345" windowWidth="15360" windowHeight="16755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Notes:</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -293,6 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,21 +601,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -619,37 +629,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2482,8 +2492,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:AK25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,112 +4943,112 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -5046,112 +5056,112 @@
         <v>54</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
@@ -5159,112 +5169,112 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
@@ -5272,112 +5282,112 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CC60D9-AB82-4C6D-8771-9CBFFE207C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13631A39-D54F-4C89-8E6E-F4A9B84BEFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="345" windowWidth="15360" windowHeight="16755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="7">
-        <v>45236</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:AK22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J3:AK10" si="1">$B3</f>
+        <f t="shared" ref="J3:AK9" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -3719,140 +3719,112 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="G10:AK15" si="2">$B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3860,138 +3832,112 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -4003,143 +3949,143 @@
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:I12" si="3">$B12</f>
+        <f t="shared" ref="C12:I12" si="2">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12:AK15" si="3">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
     </row>
@@ -4163,127 +4109,127 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4316,115 +4262,115 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,111 +4406,111 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13631A39-D54F-4C89-8E6E-F4A9B84BEFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BAB3FF-39B4-48AB-88C4-FD15BF852AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Notes:</t>
   </si>
@@ -215,7 +215,10 @@
     <t>hydrogen combined cycle</t>
   </si>
   <si>
-    <t>Colorado</t>
+    <t xml:space="preserve">For hydro, we guarantee a minimum amount of dispatch and also allow plants to </t>
+  </si>
+  <si>
+    <t>participate in the energy market for extra capacity</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,7 +299,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,27 +603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="7">
-        <v>45265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -629,73 +627,83 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2492,8 +2500,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J3:AK9" si="1">$B3</f>
+        <f t="shared" ref="J3:AK10" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -3155,140 +3163,112 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -3719,112 +3699,140 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <f t="shared" ref="G10:AK15" si="2">$B10</f>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3832,112 +3840,138 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3949,143 +3983,143 @@
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:I12" si="2">$B12</f>
+        <f t="shared" ref="C12:I12" si="3">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="G12:AK15" si="3">$B12</f>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
     </row>
@@ -4109,127 +4143,127 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4262,115 +4296,115 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4406,111 +4440,111 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BAB3FF-39B4-48AB-88C4-FD15BF852AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44442A74-8C58-4361-B2D9-14C4BDC46D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="840" windowWidth="17430" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Notes:</t>
   </si>
@@ -215,10 +215,7 @@
     <t>hydrogen combined cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">For hydro, we guarantee a minimum amount of dispatch and also allow plants to </t>
-  </si>
-  <si>
-    <t>participate in the energy market for extra capacity</t>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -283,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,6 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,23 +601,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -627,83 +629,73 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2500,8 +2492,8 @@
   </sheetPr>
   <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AK6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="J3:AK10" si="1">$B3</f>
+        <f t="shared" ref="J3:AK9" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="T3">
@@ -3699,140 +3691,112 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="G10:AK15" si="2">$B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -3840,138 +3804,112 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3983,143 +3921,143 @@
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:I12" si="3">$B12</f>
+        <f t="shared" ref="C12:I12" si="2">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12:AK15" si="3">$B12</f>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6003999999999998E-2</v>
       </c>
     </row>
@@ -4143,127 +4081,127 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4296,115 +4234,115 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4440,111 +4378,111 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44442A74-8C58-4361-B2D9-14C4BDC46D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA8BA7F-348B-4A4C-AE62-0379B9BD970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="840" windowWidth="17430" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="660" windowWidth="16755" windowHeight="14505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="7">
-        <v>45272</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58708FE3-27D8-42DC-86C6-565E566DCDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9441606D-31A8-48C7-B9FB-BB602992B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="2160" yWindow="720" windowWidth="13580" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
         <v>102</v>
       </c>
       <c r="C1" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -54722,8 +54722,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -55324,97 +55324,97 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.75">
@@ -55422,97 +55422,97 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.75">
@@ -56108,97 +56108,97 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.75">
@@ -56794,97 +56794,97 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
@@ -56892,97 +56892,97 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D18085-459C-4E2A-8EB6-250A17DBB4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E8C1BC-5AF1-43DA-9943-9D2C1179EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17895" windowHeight="16500" firstSheet="7" activeTab="8" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
         <v>102</v>
       </c>
       <c r="C1" s="4">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,8 +6375,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I48">
         <f>INDEX('petroleum adj'!B:B,MATCH(B48,'petroleum adj'!$A:$A,0))</f>
@@ -88906,8 +88906,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89955,22 +89955,22 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E8C1BC-5AF1-43DA-9943-9D2C1179EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{101285EC-6632-4952-AF9D-21132FDCD44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>102</v>
       </c>
       <c r="C1" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,6 +2976,7 @@
         <v>0.9</v>
       </c>
       <c r="F6">
+        <f>E6</f>
         <v>0.9</v>
       </c>
       <c r="G6">
@@ -6375,8 +6376,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>INDEX('petroleum adj'!B:B,MATCH(B13,'petroleum adj'!$A:$A,0))</f>
